--- a/private/concepts/seo/STATIC_WEBSITES_1.xlsx
+++ b/private/concepts/seo/STATIC_WEBSITES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF66405-1E95-40EE-8D17-6DFA9751F988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74D15B-22B0-4AA4-B7A5-3C7E882DFF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="25065" windowHeight="11385" xr2:uid="{0720FE8F-38FD-4882-8B29-24741C64194C}"/>
+    <workbookView xWindow="24165" yWindow="1050" windowWidth="22245" windowHeight="19005" xr2:uid="{0720FE8F-38FD-4882-8B29-24741C64194C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Web 2.0</t>
+  </si>
+  <si>
+    <t>Image Sharing</t>
+  </si>
+  <si>
+    <t>High PR Profiles</t>
+  </si>
+  <si>
+    <t>Local Citations</t>
+  </si>
+  <si>
+    <t>PDF Sharing</t>
+  </si>
+  <si>
+    <t>Social Media Posts</t>
   </si>
 </sst>
 </file>
@@ -643,11 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5582591-87BA-415A-8412-6B4FA368A152}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,11 +676,11 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" customWidth="1"/>
+    <col min="14" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,11 +731,26 @@
       <c r="N2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -756,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -794,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -832,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -870,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -908,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -946,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -978,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1016,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1042,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
@@ -1106,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>61</v>
       </c>

--- a/private/concepts/seo/STATIC_WEBSITES_1.xlsx
+++ b/private/concepts/seo/STATIC_WEBSITES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74D15B-22B0-4AA4-B7A5-3C7E882DFF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039FC9EC-A0CA-4AD6-927C-13756DECAB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24165" yWindow="1050" windowWidth="22245" windowHeight="19005" xr2:uid="{0720FE8F-38FD-4882-8B29-24741C64194C}"/>
+    <workbookView xWindow="7635" yWindow="570" windowWidth="22245" windowHeight="19005" xr2:uid="{0720FE8F-38FD-4882-8B29-24741C64194C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Website Ready</t>
   </si>
   <si>
-    <t>RunesBr</t>
-  </si>
-  <si>
     <t>pt</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>{championName} runy</t>
   </si>
   <si>
-    <t>runy {championName}</t>
-  </si>
-  <si>
     <t>ProbuildsEn</t>
   </si>
   <si>
@@ -265,6 +259,12 @@
   </si>
   <si>
     <t>Social Media Posts</t>
+  </si>
+  <si>
+    <t>RunesPt</t>
+  </si>
+  <si>
+    <t>{championName} runas</t>
   </si>
 </sst>
 </file>
@@ -661,10 +661,10 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>18</v>
@@ -840,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -862,6 +862,12 @@
       </c>
       <c r="M5" t="b">
         <v>1</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -901,31 +907,37 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -938,6 +950,12 @@
       </c>
       <c r="M7" t="b">
         <v>1</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -945,25 +963,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -976,6 +994,12 @@
       </c>
       <c r="M8" t="b">
         <v>1</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -983,16 +1007,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1015,25 +1039,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1046,6 +1070,9 @@
       </c>
       <c r="M10" t="b">
         <v>1</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1053,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1076,13 +1103,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -1091,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -1108,23 +1135,23 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
@@ -1136,20 +1163,23 @@
       </c>
       <c r="M15" t="b">
         <v>1</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
         <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1166,13 +1196,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1181,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
